--- a/data/meta/cow_cancer_studies.xlsx
+++ b/data/meta/cow_cancer_studies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/Documents/GitHub/jkruppa.github.io/data/meta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4B05C362-A6D7-A447-885E-930F390C50EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8847CD88-1C23-A942-819B-D260EB7D1253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="1900" windowWidth="28240" windowHeight="17240"/>
+    <workbookView xWindow="5080" yWindow="1900" windowWidth="28240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cow_cancer_studies" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="116" uniqueCount="39">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="21" uniqueCount="21">
   <si>
     <t>Author</t>
   </si>
@@ -36,82 +36,28 @@
     <t>seTE</t>
   </si>
   <si>
-    <t>RiskOfBias</t>
-  </si>
-  <si>
-    <t>TypeControlGroup</t>
-  </si>
-  <si>
-    <t>InterventionDuration</t>
-  </si>
-  <si>
-    <t>InterventionType</t>
-  </si>
-  <si>
-    <t>ModeOfDelivery</t>
-  </si>
-  <si>
     <t>Call et al.</t>
   </si>
   <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>WLC</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>mindfulness</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
     <t>Cavanagh et al.</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>DanitzOrsillo</t>
   </si>
   <si>
-    <t>ACT</t>
-  </si>
-  <si>
     <t>de Vibe et al.</t>
   </si>
   <si>
-    <t>no intervention</t>
-  </si>
-  <si>
     <t>Frazier et al.</t>
   </si>
   <si>
-    <t>information only</t>
-  </si>
-  <si>
-    <t>PCI</t>
-  </si>
-  <si>
     <t>Frogeli et al.</t>
   </si>
   <si>
     <t>Gallego et al.</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>Hazlett-Stevens &amp; Oren</t>
-  </si>
-  <si>
-    <t>book</t>
   </si>
   <si>
     <t>Hintz et al.</t>
@@ -147,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -981,11 +927,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -993,7 +939,7 @@
     <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1003,25 +949,10 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
       </c>
       <c r="B2">
         <v>0.70913623475693299</v>
@@ -1029,25 +960,10 @@
       <c r="C2">
         <v>0.26082017854776901</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0.35486410907764498</v>
@@ -1055,25 +971,10 @@
       <c r="C3">
         <v>0.196362410818884</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>1.7911700327248801</v>
@@ -1081,25 +982,10 @@
       <c r="C4">
         <v>0.34556920569900101</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0.18245521632376099</v>
@@ -1107,25 +993,10 @@
       <c r="C5">
         <v>0.117787401662918</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>0.42185093084487002</v>
@@ -1133,25 +1004,10 @@
       <c r="C6">
         <v>0.14481276202423701</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>0.63</v>
@@ -1159,25 +1015,10 @@
       <c r="C7">
         <v>0.19600000000000001</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>0.72488380878371195</v>
@@ -1185,25 +1026,10 @@
       <c r="C8">
         <v>0.22466413774921201</v>
       </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>0.52866381235732096</v>
@@ -1211,25 +1037,10 @@
       <c r="C9">
         <v>0.21046091884816201</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>0.28399999999999997</v>
@@ -1237,25 +1048,10 @@
       <c r="C10">
         <v>0.16800000000000001</v>
       </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>1.2750681713963099</v>
@@ -1263,25 +1059,10 @@
       <c r="C11">
         <v>0.337199688565405</v>
       </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>31</v>
       </c>
       <c r="B12">
         <v>0.10360817637505999</v>
@@ -1289,25 +1070,10 @@
       <c r="C12">
         <v>0.19472746348450401</v>
       </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>0.388390560376566</v>
@@ -1315,25 +1081,10 @@
       <c r="C13">
         <v>0.230768893346391</v>
       </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>33</v>
       </c>
       <c r="B14">
         <v>0.54073982333135795</v>
@@ -1341,25 +1092,10 @@
       <c r="C14">
         <v>0.244313267301974</v>
       </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>0.42615931155259501</v>
@@ -1367,25 +1103,10 @@
       <c r="C15">
         <v>0.25793794459358699</v>
       </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>0.51539691533249798</v>
@@ -1393,25 +1114,10 @@
       <c r="C16">
         <v>0.35127374699728903</v>
       </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>1.4797260108492201</v>
@@ -1419,25 +1125,10 @@
       <c r="C17">
         <v>0.31528168035534498</v>
       </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0.61257823993046701</v>
@@ -1445,46 +1136,16 @@
       <c r="C18">
         <v>0.226683364977455</v>
       </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0.6</v>
       </c>
       <c r="C19">
         <v>0.249</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
